--- a/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_lookup_attribute.xlsx
+++ b/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_lookup_attribute.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="6160" yWindow="1460" windowWidth="30340" windowHeight="14560" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="5" r:id="rId1"/>
     <sheet name="entities" sheetId="3" r:id="rId2"/>
     <sheet name="attributes" sheetId="4" r:id="rId3"/>
-    <sheet name="lookupattribute__Ref1" sheetId="6" r:id="rId4"/>
-    <sheet name="lookupattribute_Ref2" sheetId="7" r:id="rId5"/>
-    <sheet name="lookupattribute_Ref3" sheetId="8" r:id="rId6"/>
-    <sheet name="lookupattribute_Ref4" sheetId="9" r:id="rId7"/>
-    <sheet name="lookupattribute_Ref5" sheetId="10" r:id="rId8"/>
+    <sheet name="it_emx_lookupattribute_Ref1" sheetId="6" r:id="rId4"/>
+    <sheet name="it_emx_lookupattribute_Ref2" sheetId="7" r:id="rId5"/>
+    <sheet name="it_emx_lookupattribute_Ref3" sheetId="8" r:id="rId6"/>
+    <sheet name="it_emx_lookupattribute_Ref4" sheetId="9" r:id="rId7"/>
+    <sheet name="it_emx_lookupattribute_Ref5" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>parent</t>
   </si>
   <si>
-    <t>Molgenis test package</t>
-  </si>
-  <si>
     <t>abstract</t>
   </si>
   <si>
@@ -214,40 +211,40 @@
     <t>package</t>
   </si>
   <si>
-    <t>lookupattribute</t>
-  </si>
-  <si>
-    <t>lookupattribute_org</t>
-  </si>
-  <si>
-    <t>lookupattribute_org_molgenis</t>
-  </si>
-  <si>
-    <t>lookupattribute_org_molgenis_test</t>
-  </si>
-  <si>
-    <t>lookupattribute_org_molgenis_test_AbstractTop</t>
-  </si>
-  <si>
-    <t>lookupattribute_org_molgenis_test_AbstractMiddle</t>
-  </si>
-  <si>
-    <t>lookupattribute_Ref2</t>
-  </si>
-  <si>
-    <t>lookupattribute_Ref3</t>
-  </si>
-  <si>
-    <t>lookupattribute_Ref4</t>
-  </si>
-  <si>
-    <t>lookupattribute_Ref5</t>
-  </si>
-  <si>
-    <t>lookupattribute_TestLookupAttributes</t>
-  </si>
-  <si>
-    <t>lookupattribute_Ref1</t>
+    <t>it_emx</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute</t>
+  </si>
+  <si>
+    <t>MOLGENIS test package</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_AbstractTop</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_AbstractMiddle</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_Ref2</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_Ref3</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_Ref4</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_TestLookupAttributes</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_Ref1</t>
+  </si>
+  <si>
+    <t>it_emx_lookupattribute_Ref5</t>
   </si>
 </sst>
 </file>
@@ -303,7 +300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,6 +320,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -381,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -427,6 +432,10 @@
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
@@ -453,6 +462,10 @@
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -752,16 +765,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -778,33 +791,25 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -824,7 +829,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -841,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -855,105 +860,105 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -972,15 +977,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -1009,10 +1014,10 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1020,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1037,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1051,10 +1056,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1068,10 +1073,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1085,10 +1090,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1105,13 +1110,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1122,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1139,13 +1144,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1156,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1170,10 +1175,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1190,13 +1195,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1207,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1221,13 +1226,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1238,10 +1243,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1258,13 +1263,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1272,16 +1277,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1289,16 +1294,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1306,16 +1311,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1323,16 +1328,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1340,16 +1345,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1387,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1398,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1412,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1453,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1467,16 +1472,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1484,16 +1489,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1538,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1578,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1589,10 +1594,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1610,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1628,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1639,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1653,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_lookup_attribute.xlsx
+++ b/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_lookup_attribute.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="1460" windowWidth="30340" windowHeight="14560" tabRatio="737"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="5" r:id="rId1"/>
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -828,13 +828,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
